--- a/biology/Botanique/Misodendraceae/Misodendraceae.xlsx
+++ b/biology/Botanique/Misodendraceae/Misodendraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Misodendraceae (les Misodendracées) sont une famille de plantes à fleurs dicotylédones de l'ordre des Santalales. C'est une petite famille qui comprend une dizaine d'espèces du genre Misodendron.
 Ce sont des arbustes ou des sous-arbrisseaux, sans racines, semi-parasites des parties aériennes de leurs hôtes, des régions tempérées d'Amérique du Sud.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Misodendrum composé du grec μίσος / misos, haine, et δένδρων / dendron, arbre, en référence à son semi-parasitisme sur certaines espèces d'arbres tel le Nothofagus (Fagaceae).
 </t>
@@ -543,11 +557,13 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (29 avr. 2010)[1] et Angiosperm Phylogeny Website                        (29 avr. 2010)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (29 avr. 2010) et Angiosperm Phylogeny Website                        (29 avr. 2010) :
 genre Myzodendron
-Selon DELTA Angio           (29 avr. 2010)[3] :
+Selon DELTA Angio           (29 avr. 2010) :
 genre Myzodendron</t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (29 avr. 2010)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (29 avr. 2010) :
 genre Misodendrum
 Misodendrum angulatum
 Misodendrum brachystachyum
